--- a/excel_output/excel_files_20240930_113906/raw_files/case_SLA.xlsx
+++ b/excel_output/excel_files_20240930_113906/raw_files/case_SLA.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltacapita-my.sharepoint.com/personal/john_elliott_deltacapita_com/Documents/Desktop/EXCEL_PROJECT/excel_output/excel_files_20240930_113906/raw_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2EA961E4F4DB4C13C107E8D730AF35B379792FC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBB03E8-2E93-40CE-A576-4010BEC519C2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -544,11 +550,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,13 +619,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +671,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -691,6 +705,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -725,9 +740,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,14 +916,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1022,10 +1042,10 @@
         <v>151</v>
       </c>
       <c r="J2" s="2">
-        <v>45463.51875</v>
+        <v>45463.518750000003</v>
       </c>
       <c r="M2" s="2">
-        <v>45463.52063657407</v>
+        <v>45463.520636574067</v>
       </c>
       <c r="N2" t="s">
         <v>158</v>
@@ -1043,13 +1063,13 @@
         <v>165</v>
       </c>
       <c r="W2" s="2">
-        <v>45463.52063657407</v>
+        <v>45463.520636574067</v>
       </c>
       <c r="X2" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z2" s="2">
-        <v>45463.52061342593</v>
+        <v>45463.520613425928</v>
       </c>
       <c r="AA2" t="s">
         <v>137</v>
@@ -1061,7 +1081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1087,10 +1107,10 @@
         <v>151</v>
       </c>
       <c r="J3" s="2">
-        <v>45463.51873842593</v>
+        <v>45463.518738425933</v>
       </c>
       <c r="M3" s="2">
-        <v>45463.52037037037</v>
+        <v>45463.520370370366</v>
       </c>
       <c r="N3" t="s">
         <v>158</v>
@@ -1108,10 +1128,10 @@
         <v>165</v>
       </c>
       <c r="W3" s="2">
-        <v>45463.52037037037</v>
+        <v>45463.520370370366</v>
       </c>
       <c r="X3" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z3" s="2">
         <v>45463.52034722222</v>
@@ -1126,7 +1146,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>151</v>
       </c>
       <c r="J4" s="2">
-        <v>45463.51872685185</v>
+        <v>45463.518726851849</v>
       </c>
       <c r="M4" s="2">
         <v>45463.52008101852</v>
@@ -1173,13 +1193,13 @@
         <v>165</v>
       </c>
       <c r="W4" s="2">
-        <v>45463.52009259259</v>
+        <v>45463.520092592589</v>
       </c>
       <c r="X4" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z4" s="2">
-        <v>45463.52005787037</v>
+        <v>45463.520057870373</v>
       </c>
       <c r="AA4" t="s">
         <v>137</v>
@@ -1191,7 +1211,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1217,10 +1237,10 @@
         <v>151</v>
       </c>
       <c r="J5" s="2">
-        <v>45463.5187037037</v>
+        <v>45463.518703703703</v>
       </c>
       <c r="M5" s="2">
-        <v>45463.51988425926</v>
+        <v>45463.519884259258</v>
       </c>
       <c r="N5" t="s">
         <v>158</v>
@@ -1238,13 +1258,13 @@
         <v>165</v>
       </c>
       <c r="W5" s="2">
-        <v>45463.51988425926</v>
+        <v>45463.519884259258</v>
       </c>
       <c r="X5" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z5" s="2">
-        <v>45463.51986111111</v>
+        <v>45463.519861111112</v>
       </c>
       <c r="AA5" t="s">
         <v>137</v>
@@ -1256,7 +1276,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1282,10 +1302,10 @@
         <v>151</v>
       </c>
       <c r="J6" s="2">
-        <v>45463.51869212963</v>
+        <v>45463.518692129634</v>
       </c>
       <c r="M6" s="2">
-        <v>45463.5196412037</v>
+        <v>45463.519641203697</v>
       </c>
       <c r="N6" t="s">
         <v>158</v>
@@ -1303,13 +1323,13 @@
         <v>165</v>
       </c>
       <c r="W6" s="2">
-        <v>45463.51965277778</v>
+        <v>45463.519652777781</v>
       </c>
       <c r="X6" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z6" s="2">
-        <v>45463.51961805556</v>
+        <v>45463.519618055558</v>
       </c>
       <c r="AA6" t="s">
         <v>137</v>
@@ -1321,7 +1341,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1347,10 +1367,10 @@
         <v>151</v>
       </c>
       <c r="J7" s="2">
-        <v>45463.51868055556</v>
+        <v>45463.518680555557</v>
       </c>
       <c r="M7" s="2">
-        <v>45463.51954861111</v>
+        <v>45463.519548611112</v>
       </c>
       <c r="N7" t="s">
         <v>158</v>
@@ -1368,13 +1388,13 @@
         <v>165</v>
       </c>
       <c r="W7" s="2">
-        <v>45463.51956018519</v>
+        <v>45463.519560185188</v>
       </c>
       <c r="X7" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z7" s="2">
-        <v>45463.51952546297</v>
+        <v>45463.519525462973</v>
       </c>
       <c r="AA7" t="s">
         <v>137</v>
@@ -1386,7 +1406,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>151</v>
       </c>
       <c r="J8" s="2">
-        <v>45463.51863425926</v>
+        <v>45463.518634259257</v>
       </c>
       <c r="M8" s="2">
         <v>45463.51934027778</v>
@@ -1436,10 +1456,10 @@
         <v>45463.51934027778</v>
       </c>
       <c r="X8" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z8" s="2">
-        <v>45463.51931712963</v>
+        <v>45463.519317129627</v>
       </c>
       <c r="AA8" t="s">
         <v>137</v>
@@ -1451,7 +1471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1477,10 +1497,10 @@
         <v>151</v>
       </c>
       <c r="J9" s="2">
-        <v>45463.51862268519</v>
+        <v>45463.518622685187</v>
       </c>
       <c r="M9" s="2">
-        <v>45463.51918981481</v>
+        <v>45463.519189814811</v>
       </c>
       <c r="N9" t="s">
         <v>158</v>
@@ -1498,13 +1518,13 @@
         <v>165</v>
       </c>
       <c r="W9" s="2">
-        <v>45463.51920138889</v>
+        <v>45463.519201388888</v>
       </c>
       <c r="X9" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z9" s="2">
-        <v>45463.51916666667</v>
+        <v>45463.519166666672</v>
       </c>
       <c r="AA9" t="s">
         <v>137</v>
@@ -1516,7 +1536,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1562,7 @@
         <v>151</v>
       </c>
       <c r="J10" s="2">
-        <v>45463.51859953703</v>
+        <v>45463.518599537027</v>
       </c>
       <c r="M10" s="2">
         <v>45463.51903935185</v>
@@ -1563,13 +1583,13 @@
         <v>165</v>
       </c>
       <c r="W10" s="2">
-        <v>45463.51905092593</v>
+        <v>45463.519050925926</v>
       </c>
       <c r="X10" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z10" s="2">
-        <v>45463.5190162037</v>
+        <v>45463.519016203703</v>
       </c>
       <c r="AA10" t="s">
         <v>137</v>
@@ -1581,7 +1601,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1607,10 +1627,10 @@
         <v>151</v>
       </c>
       <c r="J11" s="2">
-        <v>45463.51858796296</v>
+        <v>45463.518587962957</v>
       </c>
       <c r="M11" s="2">
-        <v>45463.51888888889</v>
+        <v>45463.518888888888</v>
       </c>
       <c r="N11" t="s">
         <v>158</v>
@@ -1628,13 +1648,13 @@
         <v>165</v>
       </c>
       <c r="W11" s="2">
-        <v>45463.51890046296</v>
+        <v>45463.518900462957</v>
       </c>
       <c r="X11" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z11" s="2">
-        <v>45463.51886574074</v>
+        <v>45463.518865740742</v>
       </c>
       <c r="AA11" t="s">
         <v>137</v>
@@ -1646,7 +1666,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1672,10 +1692,10 @@
         <v>151</v>
       </c>
       <c r="J12" s="2">
-        <v>45463.50278935185</v>
+        <v>45463.502789351849</v>
       </c>
       <c r="M12" s="2">
-        <v>45463.50465277778</v>
+        <v>45463.504652777781</v>
       </c>
       <c r="N12" t="s">
         <v>158</v>
@@ -1693,13 +1713,13 @@
         <v>165</v>
       </c>
       <c r="W12" s="2">
-        <v>45463.50465277778</v>
+        <v>45463.504652777781</v>
       </c>
       <c r="X12" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z12" s="2">
-        <v>45463.50462962963</v>
+        <v>45463.504629629628</v>
       </c>
       <c r="AA12" t="s">
         <v>137</v>
@@ -1711,7 +1731,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>45463.50277777778</v>
       </c>
       <c r="M13" s="2">
-        <v>45463.50438657407</v>
+        <v>45463.504386574074</v>
       </c>
       <c r="N13" t="s">
         <v>158</v>
@@ -1758,13 +1778,13 @@
         <v>165</v>
       </c>
       <c r="W13" s="2">
-        <v>45463.50438657407</v>
+        <v>45463.504386574074</v>
       </c>
       <c r="X13" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z13" s="2">
-        <v>45463.50436342593</v>
+        <v>45463.504363425927</v>
       </c>
       <c r="AA13" t="s">
         <v>137</v>
@@ -1776,7 +1796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1802,10 +1822,10 @@
         <v>151</v>
       </c>
       <c r="J14" s="2">
-        <v>45463.50275462963</v>
+        <v>45463.502754629633</v>
       </c>
       <c r="M14" s="2">
-        <v>45463.5041087963</v>
+        <v>45463.504108796304</v>
       </c>
       <c r="N14" t="s">
         <v>158</v>
@@ -1823,10 +1843,10 @@
         <v>165</v>
       </c>
       <c r="W14" s="2">
-        <v>45463.50412037037</v>
+        <v>45463.504120370373</v>
       </c>
       <c r="X14" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z14" s="2">
         <v>45463.50408564815</v>
@@ -1841,7 +1861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1867,10 +1887,10 @@
         <v>151</v>
       </c>
       <c r="J15" s="2">
-        <v>45463.50274305556</v>
+        <v>45463.502743055556</v>
       </c>
       <c r="M15" s="2">
-        <v>45463.50388888889</v>
+        <v>45463.503888888888</v>
       </c>
       <c r="N15" t="s">
         <v>158</v>
@@ -1888,13 +1908,13 @@
         <v>165</v>
       </c>
       <c r="W15" s="2">
-        <v>45463.50390046297</v>
+        <v>45463.503900462973</v>
       </c>
       <c r="X15" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z15" s="2">
-        <v>45463.50386574074</v>
+        <v>45463.503865740742</v>
       </c>
       <c r="AA15" t="s">
         <v>137</v>
@@ -1906,7 +1926,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +1955,7 @@
         <v>45463.50273148148</v>
       </c>
       <c r="M16" s="2">
-        <v>45463.5036574074</v>
+        <v>45463.503657407397</v>
       </c>
       <c r="N16" t="s">
         <v>158</v>
@@ -1953,13 +1973,13 @@
         <v>165</v>
       </c>
       <c r="W16" s="2">
-        <v>45463.50366898148</v>
+        <v>45463.503668981481</v>
       </c>
       <c r="X16" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z16" s="2">
-        <v>45463.50363425926</v>
+        <v>45463.503634259258</v>
       </c>
       <c r="AA16" t="s">
         <v>137</v>
@@ -1971,7 +1991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1997,10 +2017,10 @@
         <v>151</v>
       </c>
       <c r="J17" s="2">
-        <v>45463.50270833333</v>
+        <v>45463.502708333333</v>
       </c>
       <c r="M17" s="2">
-        <v>45463.50356481481</v>
+        <v>45463.503564814811</v>
       </c>
       <c r="N17" t="s">
         <v>158</v>
@@ -2018,13 +2038,13 @@
         <v>165</v>
       </c>
       <c r="W17" s="2">
-        <v>45463.50357638889</v>
+        <v>45463.503576388888</v>
       </c>
       <c r="X17" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z17" s="2">
-        <v>45463.50355324074</v>
+        <v>45463.503553240742</v>
       </c>
       <c r="AA17" t="s">
         <v>137</v>
@@ -2036,7 +2056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>45463.50267361111</v>
       </c>
       <c r="M18" s="2">
-        <v>45463.50336805556</v>
+        <v>45463.503368055557</v>
       </c>
       <c r="N18" t="s">
         <v>158</v>
@@ -2083,13 +2103,13 @@
         <v>165</v>
       </c>
       <c r="W18" s="2">
-        <v>45463.50336805556</v>
+        <v>45463.503368055557</v>
       </c>
       <c r="X18" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z18" s="2">
-        <v>45463.50334490741</v>
+        <v>45463.503344907411</v>
       </c>
       <c r="AA18" t="s">
         <v>137</v>
@@ -2101,7 +2121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2127,10 +2147,10 @@
         <v>151</v>
       </c>
       <c r="J19" s="2">
-        <v>45463.50265046296</v>
+        <v>45463.502650462957</v>
       </c>
       <c r="M19" s="2">
-        <v>45463.5032175926</v>
+        <v>45463.503217592603</v>
       </c>
       <c r="N19" t="s">
         <v>158</v>
@@ -2148,13 +2168,13 @@
         <v>165</v>
       </c>
       <c r="W19" s="2">
-        <v>45463.50322916666</v>
+        <v>45463.503229166658</v>
       </c>
       <c r="X19" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z19" s="2">
-        <v>45463.50319444444</v>
+        <v>45463.503194444442</v>
       </c>
       <c r="AA19" t="s">
         <v>137</v>
@@ -2166,7 +2186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2192,10 +2212,10 @@
         <v>151</v>
       </c>
       <c r="J20" s="2">
-        <v>45463.50263888889</v>
+        <v>45463.502638888887</v>
       </c>
       <c r="M20" s="2">
-        <v>45463.5030787037</v>
+        <v>45463.503078703703</v>
       </c>
       <c r="N20" t="s">
         <v>158</v>
@@ -2213,13 +2233,13 @@
         <v>165</v>
       </c>
       <c r="W20" s="2">
-        <v>45463.5030787037</v>
+        <v>45463.503078703703</v>
       </c>
       <c r="X20" s="3">
-        <v>2.314814814814815E-05</v>
+        <v>2.314814814814815E-5</v>
       </c>
       <c r="Z20" s="2">
-        <v>45463.50305555556</v>
+        <v>45463.503055555557</v>
       </c>
       <c r="AA20" t="s">
         <v>137</v>
@@ -2231,7 +2251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2257,10 +2277,10 @@
         <v>151</v>
       </c>
       <c r="J21" s="2">
-        <v>45463.50262731482</v>
+        <v>45463.502627314818</v>
       </c>
       <c r="M21" s="2">
-        <v>45463.50292824074</v>
+        <v>45463.502928240741</v>
       </c>
       <c r="N21" t="s">
         <v>158</v>
@@ -2278,13 +2298,13 @@
         <v>165</v>
       </c>
       <c r="W21" s="2">
-        <v>45463.50293981482</v>
+        <v>45463.502939814818</v>
       </c>
       <c r="X21" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z21" s="2">
-        <v>45463.5029050926</v>
+        <v>45463.502905092602</v>
       </c>
       <c r="AA21" t="s">
         <v>137</v>
@@ -2296,7 +2316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2322,10 +2342,10 @@
         <v>151</v>
       </c>
       <c r="J22" s="2">
-        <v>45457.60018518518</v>
+        <v>45457.600185185183</v>
       </c>
       <c r="M22" s="2">
-        <v>45457.60289351852</v>
+        <v>45457.602893518517</v>
       </c>
       <c r="N22" t="s">
         <v>158</v>
@@ -2343,13 +2363,13 @@
         <v>165</v>
       </c>
       <c r="W22" s="2">
-        <v>45457.60290509259</v>
+        <v>45457.602905092594</v>
       </c>
       <c r="X22" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z22" s="2">
-        <v>45457.60285879629</v>
+        <v>45457.602858796286</v>
       </c>
       <c r="AA22" t="s">
         <v>137</v>
@@ -2361,7 +2381,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2387,10 +2407,10 @@
         <v>151</v>
       </c>
       <c r="J23" s="2">
-        <v>45457.60016203704</v>
+        <v>45457.600162037037</v>
       </c>
       <c r="M23" s="2">
-        <v>45457.6025</v>
+        <v>45457.602500000001</v>
       </c>
       <c r="N23" t="s">
         <v>158</v>
@@ -2408,13 +2428,13 @@
         <v>165</v>
       </c>
       <c r="W23" s="2">
-        <v>45457.60251157408</v>
+        <v>45457.602511574078</v>
       </c>
       <c r="X23" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z23" s="2">
-        <v>45457.60246527778</v>
+        <v>45457.602465277778</v>
       </c>
       <c r="AA23" t="s">
         <v>137</v>
@@ -2426,7 +2446,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2452,10 +2472,10 @@
         <v>151</v>
       </c>
       <c r="J24" s="2">
-        <v>45457.60013888889</v>
+        <v>45457.600138888891</v>
       </c>
       <c r="M24" s="2">
-        <v>45457.60210648148</v>
+        <v>45457.602106481478</v>
       </c>
       <c r="N24" t="s">
         <v>158</v>
@@ -2473,13 +2493,13 @@
         <v>165</v>
       </c>
       <c r="W24" s="2">
-        <v>45457.60211805555</v>
+        <v>45457.602118055547</v>
       </c>
       <c r="X24" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z24" s="2">
-        <v>45457.60207175926</v>
+        <v>45457.602071759262</v>
       </c>
       <c r="AA24" t="s">
         <v>137</v>
@@ -2491,7 +2511,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2517,10 +2537,10 @@
         <v>151</v>
       </c>
       <c r="J25" s="2">
-        <v>45457.60011574074</v>
+        <v>45457.600115740737</v>
       </c>
       <c r="M25" s="2">
-        <v>45457.60179398148</v>
+        <v>45457.601793981477</v>
       </c>
       <c r="N25" t="s">
         <v>158</v>
@@ -2538,13 +2558,13 @@
         <v>165</v>
       </c>
       <c r="W25" s="2">
-        <v>45457.60180555555</v>
+        <v>45457.601805555547</v>
       </c>
       <c r="X25" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z25" s="2">
-        <v>45457.60175925926</v>
+        <v>45457.601759259262</v>
       </c>
       <c r="AA25" t="s">
         <v>137</v>
@@ -2556,7 +2576,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2582,10 +2602,10 @@
         <v>151</v>
       </c>
       <c r="J26" s="2">
-        <v>45457.60009259259</v>
+        <v>45457.600092592591</v>
       </c>
       <c r="M26" s="2">
-        <v>45457.60144675926</v>
+        <v>45457.601446759261</v>
       </c>
       <c r="N26" t="s">
         <v>158</v>
@@ -2603,13 +2623,13 @@
         <v>165</v>
       </c>
       <c r="W26" s="2">
-        <v>45457.60145833333</v>
+        <v>45457.601458333331</v>
       </c>
       <c r="X26" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z26" s="2">
-        <v>45457.60141203704</v>
+        <v>45457.601412037038</v>
       </c>
       <c r="AA26" t="s">
         <v>137</v>
@@ -2621,7 +2641,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2647,10 +2667,10 @@
         <v>151</v>
       </c>
       <c r="J27" s="2">
-        <v>45457.60006944444</v>
+        <v>45457.600069444437</v>
       </c>
       <c r="M27" s="2">
-        <v>45457.60131944445</v>
+        <v>45457.601319444453</v>
       </c>
       <c r="N27" t="s">
         <v>158</v>
@@ -2668,13 +2688,13 @@
         <v>165</v>
       </c>
       <c r="W27" s="2">
-        <v>45457.60133101852</v>
+        <v>45457.601331018523</v>
       </c>
       <c r="X27" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z27" s="2">
-        <v>45457.60128472222</v>
+        <v>45457.601284722223</v>
       </c>
       <c r="AA27" t="s">
         <v>137</v>
@@ -2686,7 +2706,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2712,10 +2732,10 @@
         <v>151</v>
       </c>
       <c r="J28" s="2">
-        <v>45457.6</v>
+        <v>45457.599999999999</v>
       </c>
       <c r="M28" s="2">
-        <v>45457.60101851852</v>
+        <v>45457.601018518522</v>
       </c>
       <c r="N28" t="s">
         <v>158</v>
@@ -2733,13 +2753,13 @@
         <v>165</v>
       </c>
       <c r="W28" s="2">
-        <v>45457.60103009259</v>
+        <v>45457.601030092592</v>
       </c>
       <c r="X28" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z28" s="2">
-        <v>45457.60099537037</v>
+        <v>45457.600995370369</v>
       </c>
       <c r="AA28" t="s">
         <v>137</v>
@@ -2751,7 +2771,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2777,10 +2797,10 @@
         <v>151</v>
       </c>
       <c r="J29" s="2">
-        <v>45457.59997685185</v>
+        <v>45457.599976851852</v>
       </c>
       <c r="M29" s="2">
-        <v>45457.60081018518</v>
+        <v>45457.600810185177</v>
       </c>
       <c r="N29" t="s">
         <v>158</v>
@@ -2798,13 +2818,13 @@
         <v>165</v>
       </c>
       <c r="W29" s="2">
-        <v>45457.60082175926</v>
+        <v>45457.600821759261</v>
       </c>
       <c r="X29" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z29" s="2">
-        <v>45457.60077546296</v>
+        <v>45457.600775462961</v>
       </c>
       <c r="AA29" t="s">
         <v>137</v>
@@ -2816,7 +2836,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2842,10 +2862,10 @@
         <v>151</v>
       </c>
       <c r="J30" s="2">
-        <v>45457.59995370371</v>
+        <v>45457.599953703713</v>
       </c>
       <c r="M30" s="2">
-        <v>45457.60059027778</v>
+        <v>45457.600590277783</v>
       </c>
       <c r="N30" t="s">
         <v>158</v>
@@ -2863,10 +2883,10 @@
         <v>165</v>
       </c>
       <c r="W30" s="2">
-        <v>45457.60060185185</v>
+        <v>45457.600601851853</v>
       </c>
       <c r="X30" s="3">
-        <v>3.472222222222222E-05</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="Z30" s="2">
         <v>45457.60056712963</v>
@@ -2881,7 +2901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2907,10 +2927,10 @@
         <v>151</v>
       </c>
       <c r="J31" s="2">
-        <v>45457.59993055555</v>
+        <v>45457.599930555552</v>
       </c>
       <c r="M31" s="2">
-        <v>45457.60038194444</v>
+        <v>45457.600381944438</v>
       </c>
       <c r="N31" t="s">
         <v>158</v>
@@ -2928,13 +2948,13 @@
         <v>165</v>
       </c>
       <c r="W31" s="2">
-        <v>45457.60039351852</v>
+        <v>45457.600393518522</v>
       </c>
       <c r="X31" s="3">
-        <v>4.629629629629629E-05</v>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="Z31" s="2">
-        <v>45457.60034722222</v>
+        <v>45457.600347222222</v>
       </c>
       <c r="AA31" t="s">
         <v>137</v>
@@ -2946,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2972,10 +2992,10 @@
         <v>151</v>
       </c>
       <c r="J32" s="2">
-        <v>45450.59203703704</v>
+        <v>45450.592037037037</v>
       </c>
       <c r="M32" s="2">
-        <v>45450.59336805555</v>
+        <v>45450.593368055554</v>
       </c>
       <c r="N32" t="s">
         <v>158</v>
@@ -2993,13 +3013,13 @@
         <v>165</v>
       </c>
       <c r="W32" s="2">
-        <v>45539.4878125</v>
+        <v>45539.487812500003</v>
       </c>
       <c r="X32" t="s">
         <v>169</v>
       </c>
       <c r="Z32" s="2">
-        <v>45450.59203703704</v>
+        <v>45450.592037037037</v>
       </c>
       <c r="AA32" t="s">
         <v>137</v>
@@ -3011,7 +3031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -3037,10 +3057,10 @@
         <v>151</v>
       </c>
       <c r="J33" s="2">
-        <v>45450.59201388889</v>
+        <v>45450.592013888891</v>
       </c>
       <c r="M33" s="2">
-        <v>45450.59318287037</v>
+        <v>45450.593182870369</v>
       </c>
       <c r="N33" t="s">
         <v>158</v>
@@ -3058,13 +3078,13 @@
         <v>165</v>
       </c>
       <c r="W33" s="2">
-        <v>45539.4878587963</v>
+        <v>45539.487858796303</v>
       </c>
       <c r="X33" t="s">
         <v>170</v>
       </c>
       <c r="Z33" s="2">
-        <v>45450.59201388889</v>
+        <v>45450.592013888891</v>
       </c>
       <c r="AA33" t="s">
         <v>137</v>
@@ -3076,7 +3096,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3102,10 +3122,10 @@
         <v>151</v>
       </c>
       <c r="J34" s="2">
-        <v>45450.59200231481</v>
+        <v>45450.592002314806</v>
       </c>
       <c r="M34" s="2">
-        <v>45450.59299768518</v>
+        <v>45450.592997685177</v>
       </c>
       <c r="N34" t="s">
         <v>158</v>
@@ -3123,13 +3143,13 @@
         <v>165</v>
       </c>
       <c r="W34" s="2">
-        <v>45539.48789351852</v>
+        <v>45539.487893518519</v>
       </c>
       <c r="X34" t="s">
         <v>170</v>
       </c>
       <c r="Z34" s="2">
-        <v>45450.59200231481</v>
+        <v>45450.592002314806</v>
       </c>
       <c r="AA34" t="s">
         <v>137</v>
@@ -3141,7 +3161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3167,10 +3187,10 @@
         <v>151</v>
       </c>
       <c r="J35" s="2">
-        <v>45450.59197916667</v>
+        <v>45450.591979166667</v>
       </c>
       <c r="M35" s="2">
-        <v>45450.59284722222</v>
+        <v>45450.592847222222</v>
       </c>
       <c r="N35" t="s">
         <v>158</v>
@@ -3188,13 +3208,13 @@
         <v>165</v>
       </c>
       <c r="W35" s="2">
-        <v>45539.38884259259</v>
+        <v>45539.388842592591</v>
       </c>
       <c r="X35" t="s">
         <v>169</v>
       </c>
       <c r="Z35" s="2">
-        <v>45450.59197916667</v>
+        <v>45450.591979166667</v>
       </c>
       <c r="AA35" t="s">
         <v>137</v>
@@ -3206,7 +3226,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3232,10 +3252,10 @@
         <v>151</v>
       </c>
       <c r="J36" s="2">
-        <v>45450.59196759259</v>
+        <v>45450.591967592591</v>
       </c>
       <c r="M36" s="2">
-        <v>45450.59268518518</v>
+        <v>45450.592685185176</v>
       </c>
       <c r="N36" t="s">
         <v>158</v>
@@ -3253,13 +3273,13 @@
         <v>165</v>
       </c>
       <c r="W36" s="2">
-        <v>45539.40717592592</v>
+        <v>45539.407175925917</v>
       </c>
       <c r="X36" t="s">
         <v>169</v>
       </c>
       <c r="Z36" s="2">
-        <v>45450.59196759259</v>
+        <v>45450.591967592591</v>
       </c>
       <c r="AA36" t="s">
         <v>137</v>
@@ -3271,7 +3291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3297,10 +3317,10 @@
         <v>151</v>
       </c>
       <c r="J37" s="2">
-        <v>45450.59194444444</v>
+        <v>45450.591944444437</v>
       </c>
       <c r="M37" s="2">
-        <v>45450.59262731481</v>
+        <v>45450.592627314807</v>
       </c>
       <c r="N37" t="s">
         <v>158</v>
@@ -3318,13 +3338,13 @@
         <v>165</v>
       </c>
       <c r="W37" s="2">
-        <v>45539.48800925926</v>
+        <v>45539.488009259258</v>
       </c>
       <c r="X37" t="s">
         <v>170</v>
       </c>
       <c r="Z37" s="2">
-        <v>45450.59194444444</v>
+        <v>45450.591944444437</v>
       </c>
       <c r="AA37" t="s">
         <v>137</v>
@@ -3336,7 +3356,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3362,10 +3382,10 @@
         <v>151</v>
       </c>
       <c r="J38" s="2">
-        <v>45450.59188657408</v>
+        <v>45450.591886574082</v>
       </c>
       <c r="M38" s="2">
-        <v>45450.59246527778</v>
+        <v>45450.592465277783</v>
       </c>
       <c r="N38" t="s">
         <v>158</v>
@@ -3383,13 +3403,13 @@
         <v>165</v>
       </c>
       <c r="W38" s="2">
-        <v>45539.48804398148</v>
+        <v>45539.488043981481</v>
       </c>
       <c r="X38" t="s">
         <v>170</v>
       </c>
       <c r="Z38" s="2">
-        <v>45450.59188657408</v>
+        <v>45450.591886574082</v>
       </c>
       <c r="AA38" t="s">
         <v>137</v>
@@ -3401,7 +3421,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3427,10 +3447,10 @@
         <v>151</v>
       </c>
       <c r="J39" s="2">
-        <v>45450.59186342593</v>
+        <v>45450.591863425929</v>
       </c>
       <c r="M39" s="2">
-        <v>45450.59236111111</v>
+        <v>45450.592361111107</v>
       </c>
       <c r="N39" t="s">
         <v>158</v>
@@ -3448,13 +3468,13 @@
         <v>165</v>
       </c>
       <c r="W39" s="2">
-        <v>45539.4880787037</v>
+        <v>45539.488078703696</v>
       </c>
       <c r="X39" t="s">
         <v>170</v>
       </c>
       <c r="Z39" s="2">
-        <v>45450.59186342593</v>
+        <v>45450.591863425929</v>
       </c>
       <c r="AA39" t="s">
         <v>137</v>
@@ -3466,7 +3486,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3492,10 +3512,10 @@
         <v>151</v>
       </c>
       <c r="J40" s="2">
-        <v>45450.59185185185</v>
+        <v>45450.591851851852</v>
       </c>
       <c r="M40" s="2">
-        <v>45450.59225694444</v>
+        <v>45450.592256944437</v>
       </c>
       <c r="N40" t="s">
         <v>158</v>
@@ -3513,13 +3533,13 @@
         <v>165</v>
       </c>
       <c r="W40" s="2">
-        <v>45539.48811342593</v>
+        <v>45539.488113425927</v>
       </c>
       <c r="X40" t="s">
         <v>169</v>
       </c>
       <c r="Z40" s="2">
-        <v>45450.59185185185</v>
+        <v>45450.591851851852</v>
       </c>
       <c r="AA40" t="s">
         <v>137</v>
@@ -3531,7 +3551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3557,10 +3577,10 @@
         <v>151</v>
       </c>
       <c r="J41" s="2">
-        <v>45450.59182870371</v>
+        <v>45450.591828703713</v>
       </c>
       <c r="M41" s="2">
-        <v>45450.59215277778</v>
+        <v>45450.592152777783</v>
       </c>
       <c r="N41" t="s">
         <v>158</v>
@@ -3578,13 +3598,13 @@
         <v>165</v>
       </c>
       <c r="W41" s="2">
-        <v>45539.4881712963</v>
+        <v>45539.488171296303</v>
       </c>
       <c r="X41" t="s">
         <v>169</v>
       </c>
       <c r="Z41" s="2">
-        <v>45450.59182870371</v>
+        <v>45450.591828703713</v>
       </c>
       <c r="AA41" t="s">
         <v>137</v>
@@ -3596,7 +3616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3622,10 +3642,10 @@
         <v>151</v>
       </c>
       <c r="J42" s="2">
-        <v>45449.52472222222</v>
+        <v>45449.524722222217</v>
       </c>
       <c r="M42" s="2">
-        <v>45449.52549768519</v>
+        <v>45449.525497685187</v>
       </c>
       <c r="N42" t="s">
         <v>158</v>
@@ -3643,13 +3663,13 @@
         <v>165</v>
       </c>
       <c r="W42" s="2">
-        <v>45539.38358796296</v>
+        <v>45539.383587962962</v>
       </c>
       <c r="X42" t="s">
         <v>169</v>
       </c>
       <c r="Z42" s="2">
-        <v>45449.52472222222</v>
+        <v>45449.524722222217</v>
       </c>
       <c r="AA42" t="s">
         <v>137</v>
@@ -3661,7 +3681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>151</v>
       </c>
       <c r="J43" s="2">
-        <v>45449.52469907407</v>
+        <v>45449.524699074071</v>
       </c>
       <c r="M43" s="2">
         <v>45449.52542824074</v>
@@ -3708,13 +3728,13 @@
         <v>165</v>
       </c>
       <c r="W43" s="2">
-        <v>45539.48825231481</v>
+        <v>45539.488252314812</v>
       </c>
       <c r="X43" t="s">
         <v>170</v>
       </c>
       <c r="Z43" s="2">
-        <v>45449.52469907407</v>
+        <v>45449.524699074071</v>
       </c>
       <c r="AA43" t="s">
         <v>137</v>
@@ -3726,7 +3746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3752,10 +3772,10 @@
         <v>151</v>
       </c>
       <c r="J44" s="2">
-        <v>45449.5246412037</v>
+        <v>45449.524641203701</v>
       </c>
       <c r="M44" s="2">
-        <v>45449.52527777778</v>
+        <v>45449.525277777779</v>
       </c>
       <c r="N44" t="s">
         <v>158</v>
@@ -3773,13 +3793,13 @@
         <v>165</v>
       </c>
       <c r="W44" s="2">
-        <v>45539.48828703703</v>
+        <v>45539.488287037027</v>
       </c>
       <c r="X44" t="s">
         <v>170</v>
       </c>
       <c r="Z44" s="2">
-        <v>45449.5246412037</v>
+        <v>45449.524641203701</v>
       </c>
       <c r="AA44" t="s">
         <v>137</v>
@@ -3791,7 +3811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -3817,10 +3837,10 @@
         <v>151</v>
       </c>
       <c r="J45" s="2">
-        <v>45449.52458333333</v>
+        <v>45449.524583333332</v>
       </c>
       <c r="M45" s="2">
-        <v>45449.52515046296</v>
+        <v>45449.525150462963</v>
       </c>
       <c r="N45" t="s">
         <v>158</v>
@@ -3838,13 +3858,13 @@
         <v>165</v>
       </c>
       <c r="W45" s="2">
-        <v>45539.48832175926</v>
+        <v>45539.488321759258</v>
       </c>
       <c r="X45" t="s">
         <v>170</v>
       </c>
       <c r="Z45" s="2">
-        <v>45449.52458333333</v>
+        <v>45449.524583333332</v>
       </c>
       <c r="AA45" t="s">
         <v>137</v>
@@ -3856,7 +3876,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3882,10 +3902,10 @@
         <v>151</v>
       </c>
       <c r="J46" s="2">
-        <v>45449.52456018519</v>
+        <v>45449.524560185193</v>
       </c>
       <c r="M46" s="2">
-        <v>45449.52505787037</v>
+        <v>45449.525057870371</v>
       </c>
       <c r="N46" t="s">
         <v>158</v>
@@ -3903,13 +3923,13 @@
         <v>165</v>
       </c>
       <c r="W46" s="2">
-        <v>45539.48835648148</v>
+        <v>45539.488356481481</v>
       </c>
       <c r="X46" t="s">
         <v>169</v>
       </c>
       <c r="Z46" s="2">
-        <v>45449.52456018519</v>
+        <v>45449.524560185193</v>
       </c>
       <c r="AA46" t="s">
         <v>137</v>
@@ -3921,7 +3941,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -3947,10 +3967,10 @@
         <v>151</v>
       </c>
       <c r="J47" s="2">
-        <v>45449.52454861111</v>
+        <v>45449.524548611109</v>
       </c>
       <c r="M47" s="2">
-        <v>45449.52493055556</v>
+        <v>45449.524930555563</v>
       </c>
       <c r="N47" t="s">
         <v>158</v>
@@ -3968,13 +3988,13 @@
         <v>165</v>
       </c>
       <c r="W47" s="2">
-        <v>45539.4883912037</v>
+        <v>45539.488391203697</v>
       </c>
       <c r="X47" t="s">
         <v>169</v>
       </c>
       <c r="Z47" s="2">
-        <v>45449.52454861111</v>
+        <v>45449.524548611109</v>
       </c>
       <c r="AA47" t="s">
         <v>137</v>
@@ -3986,7 +4006,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4012,10 +4032,10 @@
         <v>151</v>
       </c>
       <c r="J48" s="2">
-        <v>45449.51836805556</v>
+        <v>45449.518368055556</v>
       </c>
       <c r="M48" s="2">
-        <v>45449.5194675926</v>
+        <v>45449.519467592603</v>
       </c>
       <c r="N48" t="s">
         <v>158</v>
@@ -4033,13 +4053,13 @@
         <v>165</v>
       </c>
       <c r="W48" s="2">
-        <v>45539.4884375</v>
+        <v>45539.488437499997</v>
       </c>
       <c r="X48" t="s">
         <v>169</v>
       </c>
       <c r="Z48" s="2">
-        <v>45449.51836805556</v>
+        <v>45449.518368055556</v>
       </c>
       <c r="AA48" t="s">
         <v>137</v>
@@ -4051,7 +4071,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -4077,10 +4097,10 @@
         <v>151</v>
       </c>
       <c r="J49" s="2">
-        <v>45449.51833333333</v>
+        <v>45449.518333333333</v>
       </c>
       <c r="M49" s="2">
-        <v>45449.51909722222</v>
+        <v>45449.519097222219</v>
       </c>
       <c r="N49" t="s">
         <v>158</v>
@@ -4104,7 +4124,7 @@
         <v>170</v>
       </c>
       <c r="Z49" s="2">
-        <v>45449.51833333333</v>
+        <v>45449.518333333333</v>
       </c>
       <c r="AA49" t="s">
         <v>137</v>
@@ -4116,7 +4136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -4142,10 +4162,10 @@
         <v>151</v>
       </c>
       <c r="J50" s="2">
-        <v>45449.51831018519</v>
+        <v>45449.518310185187</v>
       </c>
       <c r="M50" s="2">
-        <v>45449.51895833333</v>
+        <v>45449.518958333327</v>
       </c>
       <c r="N50" t="s">
         <v>158</v>
@@ -4163,13 +4183,13 @@
         <v>165</v>
       </c>
       <c r="W50" s="2">
-        <v>45539.48850694444</v>
+        <v>45539.488506944443</v>
       </c>
       <c r="X50" t="s">
         <v>169</v>
       </c>
       <c r="Z50" s="2">
-        <v>45449.51831018519</v>
+        <v>45449.518310185187</v>
       </c>
       <c r="AA50" t="s">
         <v>137</v>
@@ -4181,7 +4201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -4207,10 +4227,10 @@
         <v>151</v>
       </c>
       <c r="J51" s="2">
-        <v>45449.50186342592</v>
+        <v>45449.501863425918</v>
       </c>
       <c r="M51" s="2">
-        <v>45449.50260416666</v>
+        <v>45449.502604166657</v>
       </c>
       <c r="N51" t="s">
         <v>158</v>
@@ -4228,13 +4248,13 @@
         <v>165</v>
       </c>
       <c r="W51" s="2">
-        <v>45539.48854166667</v>
+        <v>45539.488541666673</v>
       </c>
       <c r="X51" t="s">
         <v>169</v>
       </c>
       <c r="Z51" s="2">
-        <v>45449.50186342592</v>
+        <v>45449.501863425918</v>
       </c>
       <c r="AA51" t="s">
         <v>137</v>
@@ -4246,7 +4266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4272,10 +4292,10 @@
         <v>151</v>
       </c>
       <c r="J52" s="2">
-        <v>45449.50184027778</v>
+        <v>45449.501840277779</v>
       </c>
       <c r="M52" s="2">
-        <v>45449.50233796296</v>
+        <v>45449.502337962957</v>
       </c>
       <c r="N52" t="s">
         <v>158</v>
@@ -4293,13 +4313,13 @@
         <v>165</v>
       </c>
       <c r="W52" s="2">
-        <v>45539.48858796297</v>
+        <v>45539.488587962973</v>
       </c>
       <c r="X52" t="s">
         <v>170</v>
       </c>
       <c r="Z52" s="2">
-        <v>45449.50184027778</v>
+        <v>45449.501840277779</v>
       </c>
       <c r="AA52" t="s">
         <v>137</v>
@@ -4311,7 +4331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4337,10 +4357,10 @@
         <v>151</v>
       </c>
       <c r="J53" s="2">
-        <v>45449.5018287037</v>
+        <v>45449.501828703702</v>
       </c>
       <c r="M53" s="2">
-        <v>45449.50223379629</v>
+        <v>45449.502233796287</v>
       </c>
       <c r="N53" t="s">
         <v>158</v>
@@ -4358,13 +4378,13 @@
         <v>165</v>
       </c>
       <c r="W53" s="2">
-        <v>45539.48862268519</v>
+        <v>45539.488622685189</v>
       </c>
       <c r="X53" t="s">
         <v>169</v>
       </c>
       <c r="Z53" s="2">
-        <v>45449.5018287037</v>
+        <v>45449.501828703702</v>
       </c>
       <c r="AA53" t="s">
         <v>137</v>
@@ -4376,7 +4396,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -4402,7 +4422,7 @@
         <v>45433</v>
       </c>
       <c r="M54" s="2">
-        <v>44796.38667824074</v>
+        <v>44796.386678240742</v>
       </c>
       <c r="R54" t="s">
         <v>160</v>
@@ -4414,7 +4434,7 @@
         <v>166</v>
       </c>
       <c r="W54" s="2">
-        <v>45539.46175925926</v>
+        <v>45539.461759259262</v>
       </c>
       <c r="X54" t="s">
         <v>169</v>
@@ -4432,7 +4452,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4452,13 +4472,13 @@
         <v>153</v>
       </c>
       <c r="J55" s="2">
-        <v>45428.60172453704</v>
+        <v>45428.601724537039</v>
       </c>
       <c r="L55" t="s">
         <v>155</v>
       </c>
       <c r="M55" s="2">
-        <v>45429.4681712963</v>
+        <v>45429.468171296299</v>
       </c>
       <c r="R55" t="s">
         <v>160</v>
@@ -4479,7 +4499,7 @@
         <v>155</v>
       </c>
       <c r="Z55" s="2">
-        <v>45428.60172453704</v>
+        <v>45428.601724537039</v>
       </c>
       <c r="AA55" t="s">
         <v>137</v>
@@ -4491,7 +4511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -4514,10 +4534,10 @@
         <v>151</v>
       </c>
       <c r="J56" s="2">
-        <v>45418.47070601852</v>
+        <v>45418.470706018517</v>
       </c>
       <c r="M56" s="2">
-        <v>45418.47144675926</v>
+        <v>45418.471446759257</v>
       </c>
       <c r="N56" t="s">
         <v>158</v>
@@ -4535,13 +4555,13 @@
         <v>165</v>
       </c>
       <c r="W56" s="2">
-        <v>45539.4886574074</v>
+        <v>45539.488657407397</v>
       </c>
       <c r="X56" t="s">
         <v>170</v>
       </c>
       <c r="Z56" s="2">
-        <v>45418.47070601852</v>
+        <v>45418.470706018517</v>
       </c>
       <c r="AA56" t="s">
         <v>137</v>
@@ -4553,7 +4573,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -4576,10 +4596,10 @@
         <v>151</v>
       </c>
       <c r="J57" s="2">
-        <v>45418.47064814815</v>
+        <v>45418.470648148148</v>
       </c>
       <c r="M57" s="2">
-        <v>45418.47128472223</v>
+        <v>45418.471284722233</v>
       </c>
       <c r="N57" t="s">
         <v>158</v>
@@ -4597,13 +4617,13 @@
         <v>165</v>
       </c>
       <c r="W57" s="2">
-        <v>45539.48869212963</v>
+        <v>45539.488692129627</v>
       </c>
       <c r="X57" t="s">
         <v>170</v>
       </c>
       <c r="Z57" s="2">
-        <v>45418.47064814815</v>
+        <v>45418.470648148148</v>
       </c>
       <c r="AA57" t="s">
         <v>137</v>
@@ -4615,7 +4635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -4638,10 +4658,10 @@
         <v>151</v>
       </c>
       <c r="J58" s="2">
-        <v>45418.47063657407</v>
+        <v>45418.470636574071</v>
       </c>
       <c r="M58" s="2">
-        <v>45418.47116898148</v>
+        <v>45418.471168981479</v>
       </c>
       <c r="N58" t="s">
         <v>158</v>
@@ -4659,13 +4679,13 @@
         <v>165</v>
       </c>
       <c r="W58" s="2">
-        <v>45539.48872685185</v>
+        <v>45539.488726851851</v>
       </c>
       <c r="X58" t="s">
         <v>170</v>
       </c>
       <c r="Z58" s="2">
-        <v>45418.47063657407</v>
+        <v>45418.470636574071</v>
       </c>
       <c r="AA58" t="s">
         <v>137</v>
@@ -4677,7 +4697,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -4700,10 +4720,10 @@
         <v>151</v>
       </c>
       <c r="J59" s="2">
-        <v>45418.47061342592</v>
+        <v>45418.470613425918</v>
       </c>
       <c r="M59" s="2">
-        <v>45418.47104166666</v>
+        <v>45418.471041666657</v>
       </c>
       <c r="N59" t="s">
         <v>158</v>
@@ -4721,13 +4741,13 @@
         <v>165</v>
       </c>
       <c r="W59" s="2">
-        <v>45539.48876157407</v>
+        <v>45539.488761574074</v>
       </c>
       <c r="X59" t="s">
         <v>169</v>
       </c>
       <c r="Z59" s="2">
-        <v>45418.47061342592</v>
+        <v>45418.470613425918</v>
       </c>
       <c r="AA59" t="s">
         <v>137</v>
@@ -4739,7 +4759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4762,10 +4782,10 @@
         <v>151</v>
       </c>
       <c r="J60" s="2">
-        <v>45418.47060185186</v>
+        <v>45418.470601851863</v>
       </c>
       <c r="M60" s="2">
-        <v>45418.47092592593</v>
+        <v>45418.470925925933</v>
       </c>
       <c r="N60" t="s">
         <v>158</v>
@@ -4783,13 +4803,13 @@
         <v>165</v>
       </c>
       <c r="W60" s="2">
-        <v>45539.4887962963</v>
+        <v>45539.488796296297</v>
       </c>
       <c r="X60" t="s">
         <v>169</v>
       </c>
       <c r="Z60" s="2">
-        <v>45418.47060185186</v>
+        <v>45418.470601851863</v>
       </c>
       <c r="AA60" t="s">
         <v>137</v>
@@ -4801,7 +4821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4827,10 +4847,10 @@
         <v>151</v>
       </c>
       <c r="J61" s="2">
-        <v>45412.3310300926</v>
+        <v>45412.331030092602</v>
       </c>
       <c r="M61" s="2">
-        <v>45412.33177083333</v>
+        <v>45412.331770833327</v>
       </c>
       <c r="N61" t="s">
         <v>158</v>
@@ -4854,7 +4874,7 @@
         <v>170</v>
       </c>
       <c r="Z61" s="2">
-        <v>45412.3310300926</v>
+        <v>45412.331030092602</v>
       </c>
       <c r="AA61" t="s">
         <v>137</v>
@@ -4866,7 +4886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -4892,10 +4912,10 @@
         <v>151</v>
       </c>
       <c r="J62" s="2">
-        <v>45412.33096064815</v>
+        <v>45412.330960648149</v>
       </c>
       <c r="M62" s="2">
-        <v>45412.3316087963</v>
+        <v>45412.331608796303</v>
       </c>
       <c r="N62" t="s">
         <v>158</v>
@@ -4913,13 +4933,13 @@
         <v>165</v>
       </c>
       <c r="W62" s="2">
-        <v>45539.48887731481</v>
+        <v>45539.488877314812</v>
       </c>
       <c r="X62" t="s">
         <v>170</v>
       </c>
       <c r="Z62" s="2">
-        <v>45412.33096064815</v>
+        <v>45412.330960648149</v>
       </c>
       <c r="AA62" t="s">
         <v>137</v>
@@ -4931,7 +4951,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -4957,10 +4977,10 @@
         <v>151</v>
       </c>
       <c r="J63" s="2">
-        <v>45412.3309375</v>
+        <v>45412.330937500003</v>
       </c>
       <c r="M63" s="2">
-        <v>45412.33149305556</v>
+        <v>45412.331493055557</v>
       </c>
       <c r="N63" t="s">
         <v>158</v>
@@ -4978,13 +4998,13 @@
         <v>165</v>
       </c>
       <c r="W63" s="2">
-        <v>45539.48891203704</v>
+        <v>45539.488912037043</v>
       </c>
       <c r="X63" t="s">
         <v>170</v>
       </c>
       <c r="Z63" s="2">
-        <v>45412.3309375</v>
+        <v>45412.330937500003</v>
       </c>
       <c r="AA63" t="s">
         <v>137</v>
@@ -4996,7 +5016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -5022,10 +5042,10 @@
         <v>151</v>
       </c>
       <c r="J64" s="2">
-        <v>45412.33091435185</v>
+        <v>45412.330914351849</v>
       </c>
       <c r="M64" s="2">
-        <v>45412.33137731482</v>
+        <v>45412.331377314818</v>
       </c>
       <c r="N64" t="s">
         <v>158</v>
@@ -5043,13 +5063,13 @@
         <v>165</v>
       </c>
       <c r="W64" s="2">
-        <v>45539.48894675926</v>
+        <v>45539.488946759258</v>
       </c>
       <c r="X64" t="s">
         <v>169</v>
       </c>
       <c r="Z64" s="2">
-        <v>45412.33091435185</v>
+        <v>45412.330914351849</v>
       </c>
       <c r="AA64" t="s">
         <v>137</v>
@@ -5061,7 +5081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -5090,7 +5110,7 @@
         <v>45412.33090277778</v>
       </c>
       <c r="M65" s="2">
-        <v>45412.33125</v>
+        <v>45412.331250000003</v>
       </c>
       <c r="N65" t="s">
         <v>158</v>
@@ -5108,7 +5128,7 @@
         <v>165</v>
       </c>
       <c r="W65" s="2">
-        <v>45539.48899305556</v>
+        <v>45539.488993055558</v>
       </c>
       <c r="X65" t="s">
         <v>169</v>
@@ -5126,7 +5146,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -5152,10 +5172,10 @@
         <v>151</v>
       </c>
       <c r="J66" s="2">
-        <v>45412.29023148148</v>
+        <v>45412.290231481478</v>
       </c>
       <c r="M66" s="2">
-        <v>45412.29068287037</v>
+        <v>45412.290682870371</v>
       </c>
       <c r="N66" t="s">
         <v>158</v>
@@ -5173,13 +5193,13 @@
         <v>165</v>
       </c>
       <c r="W66" s="2">
-        <v>45539.48902777778</v>
+        <v>45539.489027777781</v>
       </c>
       <c r="X66" t="s">
         <v>169</v>
       </c>
       <c r="Z66" s="2">
-        <v>45412.29023148148</v>
+        <v>45412.290231481478</v>
       </c>
       <c r="AA66" t="s">
         <v>137</v>
@@ -5191,7 +5211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -5217,10 +5237,10 @@
         <v>151</v>
       </c>
       <c r="J67" s="2">
-        <v>45412.29021990741</v>
+        <v>45412.290219907409</v>
       </c>
       <c r="M67" s="2">
-        <v>45412.29056712963</v>
+        <v>45412.290567129632</v>
       </c>
       <c r="N67" t="s">
         <v>158</v>
@@ -5238,13 +5258,13 @@
         <v>165</v>
       </c>
       <c r="W67" s="2">
-        <v>45539.4890625</v>
+        <v>45539.489062499997</v>
       </c>
       <c r="X67" t="s">
         <v>169</v>
       </c>
       <c r="Z67" s="2">
-        <v>45412.29021990741</v>
+        <v>45412.290219907409</v>
       </c>
       <c r="AA67" t="s">
         <v>137</v>
@@ -5256,7 +5276,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -5285,7 +5305,7 @@
         <v>45408.38484953704</v>
       </c>
       <c r="M68" s="2">
-        <v>45408.3853125</v>
+        <v>45408.385312500002</v>
       </c>
       <c r="N68" t="s">
         <v>158</v>
@@ -5321,7 +5341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -5347,10 +5367,10 @@
         <v>151</v>
       </c>
       <c r="J69" s="2">
-        <v>45408.38482638889</v>
+        <v>45408.384826388887</v>
       </c>
       <c r="M69" s="2">
-        <v>45408.38519675926</v>
+        <v>45408.385196759264</v>
       </c>
       <c r="N69" t="s">
         <v>158</v>
@@ -5368,13 +5388,13 @@
         <v>165</v>
       </c>
       <c r="W69" s="2">
-        <v>45539.48913194444</v>
+        <v>45539.489131944443</v>
       </c>
       <c r="X69" t="s">
         <v>169</v>
       </c>
       <c r="Z69" s="2">
-        <v>45408.38482638889</v>
+        <v>45408.384826388887</v>
       </c>
       <c r="AA69" t="s">
         <v>137</v>
@@ -5386,7 +5406,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -5412,10 +5432,10 @@
         <v>151</v>
       </c>
       <c r="J70" s="2">
-        <v>45407.31409722222</v>
+        <v>45407.314097222217</v>
       </c>
       <c r="M70" s="2">
-        <v>45407.31513888889</v>
+        <v>45407.315138888887</v>
       </c>
       <c r="N70" t="s">
         <v>158</v>
@@ -5433,13 +5453,13 @@
         <v>165</v>
       </c>
       <c r="W70" s="2">
-        <v>45539.48916666667</v>
+        <v>45539.489166666674</v>
       </c>
       <c r="X70" t="s">
         <v>169</v>
       </c>
       <c r="Z70" s="2">
-        <v>45407.31409722222</v>
+        <v>45407.314097222217</v>
       </c>
       <c r="AA70" t="s">
         <v>137</v>
@@ -5451,7 +5471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -5477,10 +5497,10 @@
         <v>151</v>
       </c>
       <c r="J71" s="2">
-        <v>45407.3140625</v>
+        <v>45407.314062500001</v>
       </c>
       <c r="M71" s="2">
-        <v>45407.31481481482</v>
+        <v>45407.314814814818</v>
       </c>
       <c r="N71" t="s">
         <v>158</v>
@@ -5498,13 +5518,13 @@
         <v>165</v>
       </c>
       <c r="W71" s="2">
-        <v>45539.48921296297</v>
+        <v>45539.489212962973</v>
       </c>
       <c r="X71" t="s">
         <v>170</v>
       </c>
       <c r="Z71" s="2">
-        <v>45407.3140625</v>
+        <v>45407.314062500001</v>
       </c>
       <c r="AA71" t="s">
         <v>137</v>
@@ -5516,7 +5536,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -5542,10 +5562,10 @@
         <v>151</v>
       </c>
       <c r="J72" s="2">
-        <v>45407.31403935186</v>
+        <v>45407.314039351862</v>
       </c>
       <c r="M72" s="2">
-        <v>45407.31466435185</v>
+        <v>45407.314664351848</v>
       </c>
       <c r="N72" t="s">
         <v>158</v>
@@ -5563,13 +5583,13 @@
         <v>165</v>
       </c>
       <c r="W72" s="2">
-        <v>45539.48924768518</v>
+        <v>45539.489247685182</v>
       </c>
       <c r="X72" t="s">
         <v>169</v>
       </c>
       <c r="Z72" s="2">
-        <v>45407.31403935186</v>
+        <v>45407.314039351862</v>
       </c>
       <c r="AA72" t="s">
         <v>137</v>
@@ -5581,7 +5601,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -5607,10 +5627,10 @@
         <v>151</v>
       </c>
       <c r="J73" s="2">
-        <v>45407.30899305556</v>
+        <v>45407.308993055558</v>
       </c>
       <c r="M73" s="2">
-        <v>45407.31008101852</v>
+        <v>45407.310081018521</v>
       </c>
       <c r="N73" t="s">
         <v>158</v>
@@ -5628,13 +5648,13 @@
         <v>165</v>
       </c>
       <c r="W73" s="2">
-        <v>45539.4892824074</v>
+        <v>45539.489282407398</v>
       </c>
       <c r="X73" t="s">
         <v>169</v>
       </c>
       <c r="Z73" s="2">
-        <v>45407.30899305556</v>
+        <v>45407.308993055558</v>
       </c>
       <c r="AA73" t="s">
         <v>137</v>
@@ -5646,7 +5666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -5672,10 +5692,10 @@
         <v>151</v>
       </c>
       <c r="J74" s="2">
-        <v>45407.30894675926</v>
+        <v>45407.308946759258</v>
       </c>
       <c r="M74" s="2">
-        <v>45407.30975694444</v>
+        <v>45407.309756944444</v>
       </c>
       <c r="N74" t="s">
         <v>158</v>
@@ -5693,13 +5713,13 @@
         <v>165</v>
       </c>
       <c r="W74" s="2">
-        <v>45539.48931712963</v>
+        <v>45539.489317129628</v>
       </c>
       <c r="X74" t="s">
         <v>170</v>
       </c>
       <c r="Z74" s="2">
-        <v>45407.30894675926</v>
+        <v>45407.308946759258</v>
       </c>
       <c r="AA74" t="s">
         <v>137</v>
@@ -5711,7 +5731,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -5737,10 +5757,10 @@
         <v>151</v>
       </c>
       <c r="J75" s="2">
-        <v>45407.30893518519</v>
+        <v>45407.308935185189</v>
       </c>
       <c r="M75" s="2">
-        <v>45407.3095949074</v>
+        <v>45407.309594907398</v>
       </c>
       <c r="N75" t="s">
         <v>158</v>
@@ -5758,13 +5778,13 @@
         <v>165</v>
       </c>
       <c r="W75" s="2">
-        <v>45539.48936342593</v>
+        <v>45539.489363425928</v>
       </c>
       <c r="X75" t="s">
         <v>169</v>
       </c>
       <c r="Z75" s="2">
-        <v>45407.30893518519</v>
+        <v>45407.308935185189</v>
       </c>
       <c r="AA75" t="s">
         <v>137</v>
@@ -5776,7 +5796,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -5802,7 +5822,7 @@
         <v>151</v>
       </c>
       <c r="J76" s="2">
-        <v>45407.29690972222</v>
+        <v>45407.296909722223</v>
       </c>
       <c r="M76" s="2">
         <v>45407.29792824074</v>
@@ -5823,13 +5843,13 @@
         <v>165</v>
       </c>
       <c r="W76" s="2">
-        <v>45539.48939814815</v>
+        <v>45539.489398148151</v>
       </c>
       <c r="X76" t="s">
         <v>169</v>
       </c>
       <c r="Z76" s="2">
-        <v>45407.29690972222</v>
+        <v>45407.296909722223</v>
       </c>
       <c r="AA76" t="s">
         <v>137</v>
@@ -5841,7 +5861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -5888,7 +5908,7 @@
         <v>165</v>
       </c>
       <c r="W77" s="2">
-        <v>45539.48943287037</v>
+        <v>45539.489432870367</v>
       </c>
       <c r="X77" t="s">
         <v>170</v>
@@ -5906,7 +5926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -5932,10 +5952,10 @@
         <v>151</v>
       </c>
       <c r="J78" s="2">
-        <v>45407.29686342592</v>
+        <v>45407.296863425923</v>
       </c>
       <c r="M78" s="2">
-        <v>45407.2974537037</v>
+        <v>45407.297453703701</v>
       </c>
       <c r="N78" t="s">
         <v>158</v>
@@ -5959,7 +5979,7 @@
         <v>169</v>
       </c>
       <c r="Z78" s="2">
-        <v>45407.29686342592</v>
+        <v>45407.296863425923</v>
       </c>
       <c r="AA78" t="s">
         <v>137</v>
@@ -5971,7 +5991,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -5997,10 +6017,10 @@
         <v>151</v>
       </c>
       <c r="J79" s="2">
-        <v>45407.2939699074</v>
+        <v>45407.293969907398</v>
       </c>
       <c r="M79" s="2">
-        <v>45407.295</v>
+        <v>45407.294999999998</v>
       </c>
       <c r="N79" t="s">
         <v>158</v>
@@ -6018,13 +6038,13 @@
         <v>165</v>
       </c>
       <c r="W79" s="2">
-        <v>45539.48950231481</v>
+        <v>45539.489502314813</v>
       </c>
       <c r="X79" t="s">
         <v>169</v>
       </c>
       <c r="Z79" s="2">
-        <v>45407.2939699074</v>
+        <v>45407.293969907398</v>
       </c>
       <c r="AA79" t="s">
         <v>137</v>
@@ -6036,7 +6056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -6062,10 +6082,10 @@
         <v>151</v>
       </c>
       <c r="J80" s="2">
-        <v>45407.29393518518</v>
+        <v>45407.293935185182</v>
       </c>
       <c r="M80" s="2">
-        <v>45407.29466435185</v>
+        <v>45407.294664351852</v>
       </c>
       <c r="N80" t="s">
         <v>158</v>
@@ -6083,13 +6103,13 @@
         <v>165</v>
       </c>
       <c r="W80" s="2">
-        <v>45539.48953703704</v>
+        <v>45539.489537037043</v>
       </c>
       <c r="X80" t="s">
         <v>170</v>
       </c>
       <c r="Z80" s="2">
-        <v>45407.29393518518</v>
+        <v>45407.293935185182</v>
       </c>
       <c r="AA80" t="s">
         <v>137</v>
@@ -6101,7 +6121,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -6127,7 +6147,7 @@
         <v>151</v>
       </c>
       <c r="J81" s="2">
-        <v>45407.29391203704</v>
+        <v>45407.293912037043</v>
       </c>
       <c r="M81" s="2">
         <v>45407.29451388889</v>
@@ -6148,13 +6168,13 @@
         <v>165</v>
       </c>
       <c r="W81" s="2">
-        <v>45539.48957175926</v>
+        <v>45539.489571759259</v>
       </c>
       <c r="X81" t="s">
         <v>169</v>
       </c>
       <c r="Z81" s="2">
-        <v>45407.29391203704</v>
+        <v>45407.293912037043</v>
       </c>
       <c r="AA81" t="s">
         <v>137</v>
@@ -6166,7 +6186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -6192,10 +6212,10 @@
         <v>151</v>
       </c>
       <c r="J82" s="2">
-        <v>45407.29121527778</v>
+        <v>45407.291215277779</v>
       </c>
       <c r="M82" s="2">
-        <v>45407.29231481482</v>
+        <v>45407.292314814818</v>
       </c>
       <c r="N82" t="s">
         <v>158</v>
@@ -6213,13 +6233,13 @@
         <v>165</v>
       </c>
       <c r="W82" s="2">
-        <v>45539.48961805556</v>
+        <v>45539.489618055559</v>
       </c>
       <c r="X82" t="s">
         <v>169</v>
       </c>
       <c r="Z82" s="2">
-        <v>45407.29121527778</v>
+        <v>45407.291215277779</v>
       </c>
       <c r="AA82" t="s">
         <v>137</v>
@@ -6231,7 +6251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -6257,10 +6277,10 @@
         <v>151</v>
       </c>
       <c r="J83" s="2">
-        <v>45407.29118055556</v>
+        <v>45407.291180555563</v>
       </c>
       <c r="M83" s="2">
-        <v>45407.29197916666</v>
+        <v>45407.291979166657</v>
       </c>
       <c r="N83" t="s">
         <v>158</v>
@@ -6278,13 +6298,13 @@
         <v>165</v>
       </c>
       <c r="W83" s="2">
-        <v>45539.48965277777</v>
+        <v>45539.489652777767</v>
       </c>
       <c r="X83" t="s">
         <v>170</v>
       </c>
       <c r="Z83" s="2">
-        <v>45407.29118055556</v>
+        <v>45407.291180555563</v>
       </c>
       <c r="AA83" t="s">
         <v>137</v>
@@ -6296,7 +6316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -6325,7 +6345,7 @@
         <v>45407.29115740741</v>
       </c>
       <c r="M84" s="2">
-        <v>45407.2918287037</v>
+        <v>45407.291828703703</v>
       </c>
       <c r="N84" t="s">
         <v>158</v>
@@ -6343,7 +6363,7 @@
         <v>165</v>
       </c>
       <c r="W84" s="2">
-        <v>45539.4896875</v>
+        <v>45539.489687499998</v>
       </c>
       <c r="X84" t="s">
         <v>169</v>
@@ -6361,7 +6381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -6387,13 +6407,13 @@
         <v>151</v>
       </c>
       <c r="J85" s="2">
-        <v>45407.29114583333</v>
+        <v>45407.291145833333</v>
       </c>
       <c r="L85" t="s">
         <v>155</v>
       </c>
       <c r="M85" s="2">
-        <v>45425.60965277778</v>
+        <v>45425.609652777777</v>
       </c>
       <c r="N85" t="s">
         <v>158</v>
@@ -6411,7 +6431,7 @@
         <v>165</v>
       </c>
       <c r="W85" s="2">
-        <v>45539.48972222222</v>
+        <v>45539.489722222221</v>
       </c>
       <c r="X85" t="s">
         <v>169</v>
@@ -6420,7 +6440,7 @@
         <v>155</v>
       </c>
       <c r="Z85" s="2">
-        <v>45407.29114583333</v>
+        <v>45407.291145833333</v>
       </c>
       <c r="AA85" t="s">
         <v>139</v>
@@ -6432,7 +6452,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>113</v>
       </c>
@@ -6458,10 +6478,10 @@
         <v>151</v>
       </c>
       <c r="J86" s="2">
-        <v>45407.23429398148</v>
+        <v>45407.234293981477</v>
       </c>
       <c r="M86" s="2">
-        <v>45407.23533564815</v>
+        <v>45407.235335648147</v>
       </c>
       <c r="N86" t="s">
         <v>158</v>
@@ -6479,13 +6499,13 @@
         <v>165</v>
       </c>
       <c r="W86" s="2">
-        <v>45539.48975694444</v>
+        <v>45539.489756944437</v>
       </c>
       <c r="X86" t="s">
         <v>169</v>
       </c>
       <c r="Z86" s="2">
-        <v>45407.23429398148</v>
+        <v>45407.234293981477</v>
       </c>
       <c r="AA86" t="s">
         <v>137</v>
@@ -6497,7 +6517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -6523,10 +6543,10 @@
         <v>151</v>
       </c>
       <c r="J87" s="2">
-        <v>45407.23425925926</v>
+        <v>45407.234259259261</v>
       </c>
       <c r="M87" s="2">
-        <v>45407.23501157408</v>
+        <v>45407.235011574077</v>
       </c>
       <c r="N87" t="s">
         <v>158</v>
@@ -6544,13 +6564,13 @@
         <v>165</v>
       </c>
       <c r="W87" s="2">
-        <v>45539.48979166667</v>
+        <v>45539.489791666667</v>
       </c>
       <c r="X87" t="s">
         <v>170</v>
       </c>
       <c r="Z87" s="2">
-        <v>45407.23425925926</v>
+        <v>45407.234259259261</v>
       </c>
       <c r="AA87" t="s">
         <v>137</v>
@@ -6562,7 +6582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -6588,10 +6608,10 @@
         <v>151</v>
       </c>
       <c r="J88" s="2">
-        <v>45407.23423611111</v>
+        <v>45407.234236111108</v>
       </c>
       <c r="M88" s="2">
-        <v>45407.23486111111</v>
+        <v>45407.234861111108</v>
       </c>
       <c r="N88" t="s">
         <v>158</v>
@@ -6609,13 +6629,13 @@
         <v>165</v>
       </c>
       <c r="W88" s="2">
-        <v>45539.48983796296</v>
+        <v>45539.489837962959</v>
       </c>
       <c r="X88" t="s">
         <v>169</v>
       </c>
       <c r="Z88" s="2">
-        <v>45407.23423611111</v>
+        <v>45407.234236111108</v>
       </c>
       <c r="AA88" t="s">
         <v>137</v>
@@ -6627,7 +6647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -6653,13 +6673,13 @@
         <v>151</v>
       </c>
       <c r="J89" s="2">
-        <v>45407.23107638889</v>
+        <v>45407.231076388889</v>
       </c>
       <c r="L89" t="s">
         <v>155</v>
       </c>
       <c r="M89" s="2">
-        <v>45425.60952546296</v>
+        <v>45425.609525462962</v>
       </c>
       <c r="N89" t="s">
         <v>158</v>
@@ -6677,7 +6697,7 @@
         <v>165</v>
       </c>
       <c r="W89" s="2">
-        <v>45539.48987268518</v>
+        <v>45539.489872685182</v>
       </c>
       <c r="X89" t="s">
         <v>170</v>
@@ -6686,7 +6706,7 @@
         <v>155</v>
       </c>
       <c r="Z89" s="2">
-        <v>45407.23107638889</v>
+        <v>45407.231076388889</v>
       </c>
       <c r="AA89" t="s">
         <v>139</v>
@@ -6698,7 +6718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6724,13 +6744,13 @@
         <v>151</v>
       </c>
       <c r="J90" s="2">
-        <v>45407.22815972222</v>
+        <v>45407.228159722217</v>
       </c>
       <c r="L90" t="s">
         <v>155</v>
       </c>
       <c r="M90" s="2">
-        <v>45428.44564814815</v>
+        <v>45428.445648148147</v>
       </c>
       <c r="N90" t="s">
         <v>158</v>
@@ -6748,7 +6768,7 @@
         <v>165</v>
       </c>
       <c r="W90" s="2">
-        <v>45539.48990740741</v>
+        <v>45539.489907407413</v>
       </c>
       <c r="X90" t="s">
         <v>170</v>
@@ -6757,7 +6777,7 @@
         <v>155</v>
       </c>
       <c r="Z90" s="2">
-        <v>45407.22815972222</v>
+        <v>45407.228159722217</v>
       </c>
       <c r="AA90" t="s">
         <v>140</v>
@@ -6769,7 +6789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -6795,10 +6815,10 @@
         <v>151</v>
       </c>
       <c r="J91" s="2">
-        <v>45406.56587962963</v>
+        <v>45406.565879629627</v>
       </c>
       <c r="M91" s="2">
-        <v>45406.56600694444</v>
+        <v>45406.566006944442</v>
       </c>
       <c r="N91" t="s">
         <v>158</v>
@@ -6816,13 +6836,13 @@
         <v>165</v>
       </c>
       <c r="W91" s="2">
-        <v>45539.48994212963</v>
+        <v>45539.489942129629</v>
       </c>
       <c r="X91" t="s">
         <v>169</v>
       </c>
       <c r="Z91" s="2">
-        <v>45406.56587962963</v>
+        <v>45406.565879629627</v>
       </c>
       <c r="AA91" t="s">
         <v>137</v>
@@ -6834,7 +6854,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -6860,10 +6880,10 @@
         <v>151</v>
       </c>
       <c r="J92" s="2">
-        <v>45406.51395833334</v>
+        <v>45406.513958333337</v>
       </c>
       <c r="M92" s="2">
-        <v>45406.51408564814</v>
+        <v>45406.514085648138</v>
       </c>
       <c r="N92" t="s">
         <v>158</v>
@@ -6881,13 +6901,13 @@
         <v>165</v>
       </c>
       <c r="W92" s="2">
-        <v>45539.48997685185</v>
+        <v>45539.489976851852</v>
       </c>
       <c r="X92" t="s">
         <v>169</v>
       </c>
       <c r="Z92" s="2">
-        <v>45406.51395833334</v>
+        <v>45406.513958333337</v>
       </c>
       <c r="AA92" t="s">
         <v>137</v>
@@ -6899,7 +6919,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -6925,13 +6945,13 @@
         <v>151</v>
       </c>
       <c r="J93" s="2">
-        <v>45406.41321759259</v>
+        <v>45406.413217592592</v>
       </c>
       <c r="L93" t="s">
         <v>156</v>
       </c>
       <c r="M93" s="2">
-        <v>45406.41480324074</v>
+        <v>45406.414803240739</v>
       </c>
       <c r="N93" t="s">
         <v>158</v>
@@ -6949,7 +6969,7 @@
         <v>165</v>
       </c>
       <c r="W93" s="2">
-        <v>45539.49001157407</v>
+        <v>45539.490011574067</v>
       </c>
       <c r="X93" t="s">
         <v>169</v>
@@ -6958,7 +6978,7 @@
         <v>156</v>
       </c>
       <c r="Z93" s="2">
-        <v>45406.41321759259</v>
+        <v>45406.413217592592</v>
       </c>
       <c r="AA93" t="s">
         <v>137</v>
@@ -6970,7 +6990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -6996,7 +7016,7 @@
         <v>151</v>
       </c>
       <c r="J94" s="2">
-        <v>45406.1334375</v>
+        <v>45406.133437500001</v>
       </c>
       <c r="L94" t="s">
         <v>155</v>
@@ -7020,7 +7040,7 @@
         <v>165</v>
       </c>
       <c r="W94" s="2">
-        <v>45539.49005787037</v>
+        <v>45539.490057870367</v>
       </c>
       <c r="X94" t="s">
         <v>169</v>
@@ -7029,7 +7049,7 @@
         <v>155</v>
       </c>
       <c r="Z94" s="2">
-        <v>45406.1334375</v>
+        <v>45406.133437500001</v>
       </c>
       <c r="AA94" t="s">
         <v>140</v>
@@ -7041,7 +7061,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -7064,13 +7084,13 @@
         <v>154</v>
       </c>
       <c r="J95" s="2">
-        <v>45336.60719907407</v>
+        <v>45336.607199074067</v>
       </c>
       <c r="L95" t="s">
         <v>157</v>
       </c>
       <c r="M95" s="2">
-        <v>45336.68689814815</v>
+        <v>45336.686898148153</v>
       </c>
       <c r="R95" t="s">
         <v>160</v>
@@ -7082,7 +7102,7 @@
         <v>168</v>
       </c>
       <c r="W95" s="2">
-        <v>45539.50283564815</v>
+        <v>45539.502835648149</v>
       </c>
       <c r="X95" t="s">
         <v>169</v>
@@ -7091,7 +7111,7 @@
         <v>157</v>
       </c>
       <c r="Z95" s="2">
-        <v>45336.60719907407</v>
+        <v>45336.607199074067</v>
       </c>
       <c r="AA95" t="s">
         <v>137</v>
@@ -7103,7 +7123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -7129,10 +7149,10 @@
         <v>154</v>
       </c>
       <c r="J96" s="2">
-        <v>45336.59609953704</v>
+        <v>45336.596099537041</v>
       </c>
       <c r="M96" s="2">
-        <v>45336.59609953704</v>
+        <v>45336.596099537041</v>
       </c>
       <c r="R96" t="s">
         <v>160</v>
@@ -7144,13 +7164,13 @@
         <v>168</v>
       </c>
       <c r="W96" s="2">
-        <v>45539.5029050926</v>
+        <v>45539.502905092602</v>
       </c>
       <c r="X96" t="s">
         <v>169</v>
       </c>
       <c r="Z96" s="2">
-        <v>45336.59609953704</v>
+        <v>45336.596099537041</v>
       </c>
       <c r="AA96" t="s">
         <v>137</v>
@@ -7162,7 +7182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -7188,10 +7208,10 @@
         <v>154</v>
       </c>
       <c r="J97" s="2">
-        <v>45336.59136574074</v>
+        <v>45336.591365740736</v>
       </c>
       <c r="M97" s="2">
-        <v>45336.59137731481</v>
+        <v>45336.591377314813</v>
       </c>
       <c r="R97" t="s">
         <v>160</v>
@@ -7203,13 +7223,13 @@
         <v>168</v>
       </c>
       <c r="W97" s="2">
-        <v>45539.50299768519</v>
+        <v>45539.502997685187</v>
       </c>
       <c r="X97" t="s">
         <v>169</v>
       </c>
       <c r="Z97" s="2">
-        <v>45336.59136574074</v>
+        <v>45336.591365740736</v>
       </c>
       <c r="AA97" t="s">
         <v>137</v>
@@ -7221,7 +7241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -7247,10 +7267,10 @@
         <v>154</v>
       </c>
       <c r="J98" s="2">
-        <v>45336.58539351852</v>
+        <v>45336.585393518522</v>
       </c>
       <c r="M98" s="2">
-        <v>45336.58539351852</v>
+        <v>45336.585393518522</v>
       </c>
       <c r="R98" t="s">
         <v>160</v>
@@ -7268,7 +7288,7 @@
         <v>169</v>
       </c>
       <c r="Z98" s="2">
-        <v>45336.58539351852</v>
+        <v>45336.585393518522</v>
       </c>
       <c r="AA98" t="s">
         <v>137</v>
@@ -7280,7 +7300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -7306,10 +7326,10 @@
         <v>154</v>
       </c>
       <c r="J99" s="2">
-        <v>45336.58217592593</v>
+        <v>45336.582175925927</v>
       </c>
       <c r="M99" s="2">
-        <v>45336.58231481481</v>
+        <v>45336.582314814812</v>
       </c>
       <c r="R99" t="s">
         <v>160</v>
@@ -7321,13 +7341,13 @@
         <v>168</v>
       </c>
       <c r="W99" s="2">
-        <v>45539.50318287037</v>
+        <v>45539.503182870372</v>
       </c>
       <c r="X99" t="s">
         <v>169</v>
       </c>
       <c r="Z99" s="2">
-        <v>45336.58217592593</v>
+        <v>45336.582175925927</v>
       </c>
       <c r="AA99" t="s">
         <v>137</v>
@@ -7339,7 +7359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -7359,10 +7379,10 @@
         <v>150</v>
       </c>
       <c r="J100" s="2">
-        <v>45334.55869212963</v>
+        <v>45334.558692129627</v>
       </c>
       <c r="M100" s="2">
-        <v>45334.5587037037</v>
+        <v>45334.558703703697</v>
       </c>
       <c r="R100" t="s">
         <v>160</v>
@@ -7374,13 +7394,13 @@
         <v>168</v>
       </c>
       <c r="W100" s="2">
-        <v>45539.50326388889</v>
+        <v>45539.503263888888</v>
       </c>
       <c r="X100" t="s">
         <v>169</v>
       </c>
       <c r="Z100" s="2">
-        <v>45334.55869212963</v>
+        <v>45334.558692129627</v>
       </c>
       <c r="AB100" t="s">
         <v>172</v>
@@ -7389,7 +7409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -7415,10 +7435,10 @@
         <v>154</v>
       </c>
       <c r="J101" s="2">
-        <v>45334.55554398148</v>
+        <v>45334.555543981478</v>
       </c>
       <c r="M101" s="2">
-        <v>45334.55554398148</v>
+        <v>45334.555543981478</v>
       </c>
       <c r="R101" t="s">
         <v>160</v>
@@ -7436,7 +7456,7 @@
         <v>169</v>
       </c>
       <c r="Z101" s="2">
-        <v>45334.55554398148</v>
+        <v>45334.555543981478</v>
       </c>
       <c r="AA101" t="s">
         <v>137</v>
@@ -7448,7 +7468,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -7474,10 +7494,10 @@
         <v>154</v>
       </c>
       <c r="J102" s="2">
-        <v>45334.50010416667</v>
+        <v>45334.500104166669</v>
       </c>
       <c r="M102" s="2">
-        <v>45334.50011574074</v>
+        <v>45334.500115740739</v>
       </c>
       <c r="R102" t="s">
         <v>160</v>
@@ -7489,13 +7509,13 @@
         <v>168</v>
       </c>
       <c r="W102" s="2">
-        <v>45539.50344907407</v>
+        <v>45539.503449074073</v>
       </c>
       <c r="X102" t="s">
         <v>169</v>
       </c>
       <c r="Z102" s="2">
-        <v>45334.50010416667</v>
+        <v>45334.500104166669</v>
       </c>
       <c r="AA102" t="s">
         <v>137</v>
@@ -7507,7 +7527,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -7533,10 +7553,10 @@
         <v>154</v>
       </c>
       <c r="J103" s="2">
-        <v>45334.49027777778</v>
+        <v>45334.490277777782</v>
       </c>
       <c r="M103" s="2">
-        <v>45334.49027777778</v>
+        <v>45334.490277777782</v>
       </c>
       <c r="R103" t="s">
         <v>160</v>
@@ -7548,13 +7568,13 @@
         <v>168</v>
       </c>
       <c r="W103" s="2">
-        <v>45539.5035300926</v>
+        <v>45539.503530092603</v>
       </c>
       <c r="X103" t="s">
         <v>169</v>
       </c>
       <c r="Z103" s="2">
-        <v>45334.49027777778</v>
+        <v>45334.490277777782</v>
       </c>
       <c r="AA103" t="s">
         <v>137</v>
@@ -7566,7 +7586,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>131</v>
       </c>
@@ -7592,10 +7612,10 @@
         <v>154</v>
       </c>
       <c r="J104" s="2">
-        <v>45334.43769675926</v>
+        <v>45334.437696759262</v>
       </c>
       <c r="M104" s="2">
-        <v>45334.43770833333</v>
+        <v>45334.437708333331</v>
       </c>
       <c r="R104" t="s">
         <v>160</v>
@@ -7607,13 +7627,13 @@
         <v>168</v>
       </c>
       <c r="W104" s="2">
-        <v>45539.50362268519</v>
+        <v>45539.503622685188</v>
       </c>
       <c r="X104" t="s">
         <v>169</v>
       </c>
       <c r="Z104" s="2">
-        <v>45334.43769675926</v>
+        <v>45334.437696759262</v>
       </c>
       <c r="AA104" t="s">
         <v>137</v>
@@ -7625,7 +7645,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -7645,10 +7665,10 @@
         <v>150</v>
       </c>
       <c r="J105" s="2">
-        <v>45334.43003472222</v>
+        <v>45334.430034722223</v>
       </c>
       <c r="M105" s="2">
-        <v>45334.43004629629</v>
+        <v>45334.430046296293</v>
       </c>
       <c r="R105" t="s">
         <v>160</v>
@@ -7666,7 +7686,7 @@
         <v>169</v>
       </c>
       <c r="Z105" s="2">
-        <v>45334.43003472222</v>
+        <v>45334.430034722223</v>
       </c>
       <c r="AB105" t="s">
         <v>172</v>
@@ -7675,7 +7695,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -7710,7 +7730,7 @@
         <v>168</v>
       </c>
       <c r="W106" s="2">
-        <v>45539.5037962963</v>
+        <v>45539.503796296303</v>
       </c>
       <c r="X106" t="s">
         <v>169</v>
